--- a/files/projects/final-project_rubric.xlsx
+++ b/files/projects/final-project_rubric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Library/CloudStorage/Dropbox/Teaching/• Courses/Data visualization/2024-Fall/Final project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/Library/CloudStorage/Dropbox/Teaching/• Courses/Data visualization/2025-Spring/Final project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3521F129-AD5E-7540-904B-F1F9B4878F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2B39BD-09F0-5342-A5D0-22233CF357A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33220" yWindow="3900" windowWidth="30240" windowHeight="17700" xr2:uid="{AE642143-4B0F-CF4A-8303-14EA69BAC89B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" xr2:uid="{AE642143-4B0F-CF4A-8303-14EA69BAC89B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,13 +211,13 @@
     <t>5–0</t>
   </si>
   <si>
-    <t>PMAP 8551/4551 • Fall 2024</t>
-  </si>
-  <si>
     <t>You included all your code and output in a Quarto document that was converted to PDF or docx. The output in the final document does not include warnings or messages. Figures in the document are the appropriate file type (i.e. if exported as PDF, embedded figures are vector-based PDFs; if exported as docx, embedded figures are bitmap PNGs). You included standalone PNG and PDF versions of your final graphic.</t>
   </si>
   <si>
     <t>Code and output in rendered document</t>
+  </si>
+  <si>
+    <t>PMAP 8551/4551 • Spring 2025</t>
   </si>
 </sst>
 </file>
@@ -961,7 +961,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550F01CB-66B6-2D48-9331-E85886CF5C6B}">
   <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -984,7 +986,7 @@
     </row>
     <row r="3" spans="2:7" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1045,7 +1047,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -1072,7 +1074,7 @@
     </row>
     <row r="12" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="17">
         <v>8</v>
